--- a/Excel/MBBRankability-Predictability.xlsx
+++ b/Excel/MBBRankability-Predictability.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thcameron/Documents/Research/DataRankability/Excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF194FD2-A7F0-AE4B-A564-67835BCE90E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B6F55E-AE5E-1149-B179-FEF1966F6004}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4120" yWindow="1900" windowWidth="27640" windowHeight="16940" xr2:uid="{183D03B9-5650-E241-9775-57984AE1A482}"/>
+    <workbookView xWindow="1020" yWindow="1620" windowWidth="27640" windowHeight="16940" xr2:uid="{183D03B9-5650-E241-9775-57984AE1A482}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Year</t>
   </si>
@@ -40,6 +40,9 @@
   </si>
   <si>
     <t>Correlation</t>
+  </si>
+  <si>
+    <t>specR-Trans</t>
   </si>
 </sst>
 </file>
@@ -251,7 +254,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$18</c:f>
+              <c:f>Sheet1!$D$2:$D$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -433,7 +436,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$18</c:f>
+              <c:f>Sheet1!$E$2:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -565,26 +568,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -684,26 +667,6 @@
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="dk1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
@@ -843,608 +806,17 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="246">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2"/>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:alpha val="70000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="2">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="1"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:shade val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:legend>
-  <cs:plotArea>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:gradFill>
-        <a:gsLst>
-          <a:gs pos="100000">
-            <a:schemeClr val="lt1">
-              <a:lumMod val="95000"/>
-            </a:schemeClr>
-          </a:gs>
-          <a:gs pos="0">
-            <a:schemeClr val="lt1">
-              <a:alpha val="0"/>
-            </a:schemeClr>
-          </a:gs>
-        </a:gsLst>
-        <a:lin ang="5400000" scaled="0"/>
-      </a:gradFill>
-    </cs:spPr>
-  </cs:plotArea>
-  <cs:plotArea3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="50000"/>
-        <a:lumOff val="50000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" kern="1200" cap="none" spc="20" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200" spc="0" baseline="0"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1047750</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -1772,15 +1144,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{881DC6A9-9A6A-F34B-A72F-E5F472979EA2}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="13.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1788,263 +1160,319 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>2002</v>
       </c>
       <c r="B2" s="2">
         <v>7.210917E-2</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2">
+        <v>0.96242601558964702</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.74237995824634595</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.75615866388308905</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>2003</v>
       </c>
       <c r="B3" s="2">
         <v>7.3711789999999999E-2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
+        <v>0.97060745764013001</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.749470563320626</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.76048284625158802</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>2004</v>
       </c>
       <c r="B4" s="2">
         <v>8.7323639999999994E-2</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
+        <v>0.95993257355265305</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.75845100556268696</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.76872058194266102</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>2005</v>
       </c>
       <c r="B5" s="2">
         <v>8.6547819999999998E-2</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
+        <v>0.940131181767214</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.74633737965675995</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.76098786102971905</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>2006</v>
       </c>
       <c r="B6" s="2">
         <v>8.3524539999999994E-2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6">
+        <v>0.96012726689123795</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.74835390946502001</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.75987654320987597</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>2007</v>
       </c>
       <c r="B7" s="2">
         <v>8.0234379999999994E-2</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7">
+        <v>0.97500678276922204</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.75009731413001102</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.763137407551576</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>2008</v>
       </c>
       <c r="B8" s="2">
         <v>8.7847750000000002E-2</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
+        <v>0.97054024402087202</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.74824644549762998</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.76132701421800897</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>2009</v>
       </c>
       <c r="B9" s="2">
         <v>8.1805589999999997E-2</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
+        <v>0.97272331102166898</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.74813988095238004</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>0.75558035714285698</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2010</v>
       </c>
       <c r="B10" s="2">
         <v>8.1414940000000005E-2</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
+        <v>0.97675643080687902</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.75802560771942795</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.77027277788086801</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>2011</v>
       </c>
       <c r="B11" s="2">
         <v>8.1367659999999994E-2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
+        <v>0.97105929053125195</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.75111441307577997</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>0.75910104011887003</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>2012</v>
       </c>
       <c r="B12" s="2">
         <v>8.5729079999999999E-2</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
+        <v>0.98616190757859501</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.76217818114465596</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.77551398407112404</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>2013</v>
       </c>
       <c r="B13" s="2">
         <v>8.4892040000000002E-2</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
+        <v>0.98016757042368297</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.75338455909257196</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>0.76436150750091403</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>2014</v>
       </c>
       <c r="B14" s="2">
         <v>7.9968949999999997E-2</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14">
+        <v>0.97707884652899901</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.74782135076252698</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>0.76379811183732704</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>2015</v>
       </c>
       <c r="B15" s="2">
         <v>8.5758989999999993E-2</v>
       </c>
-      <c r="C15" s="2">
+      <c r="C15">
+        <v>0.96867675141676202</v>
+      </c>
+      <c r="D15" s="2">
         <v>0.74122567739588996</v>
       </c>
-      <c r="D15" s="2">
+      <c r="E15" s="2">
         <v>0.75686488452445899</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>2016</v>
       </c>
       <c r="B16" s="2">
         <v>7.3060390000000003E-2</v>
       </c>
-      <c r="C16" s="2">
+      <c r="C16">
+        <v>0.94696685330156705</v>
+      </c>
+      <c r="D16" s="2">
         <v>0.75416968817983998</v>
       </c>
-      <c r="D16" s="2">
+      <c r="E16" s="2">
         <v>0.76522842639593902</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>2017</v>
       </c>
       <c r="B17" s="2">
         <v>6.4594490000000004E-2</v>
       </c>
-      <c r="C17" s="2">
+      <c r="C17">
+        <v>0.98637973377400601</v>
+      </c>
+      <c r="D17" s="2">
         <v>0.75236329935125101</v>
       </c>
-      <c r="D17" s="2">
+      <c r="E17" s="2">
         <v>0.75866543095458705</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>2018</v>
       </c>
       <c r="B18" s="2">
         <v>7.5308550000000002E-2</v>
       </c>
-      <c r="C18" s="2">
+      <c r="C18">
+        <v>0.98410140421694203</v>
+      </c>
+      <c r="D18" s="2">
         <v>0.74187725631768897</v>
       </c>
-      <c r="D18" s="2">
+      <c r="E18" s="2">
         <v>0.75685920577617305</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -2054,21 +1482,36 @@
       <c r="C21" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="3"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+      <c r="E21" s="3"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B22" s="2">
-        <f>CORREL(B2:B18,C2:C18)</f>
+        <f>CORREL(B2:B18,D2:D18)</f>
         <v>0.16254727409019604</v>
       </c>
       <c r="C22" s="2">
-        <f>CORREL(B2:B18,D2:D18)</f>
+        <f>CORREL(B2:B18,E2:E18)</f>
         <v>0.34249366483509514</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23">
+        <f>CORREL(C2:C18,D2:D18)</f>
+        <v>0.16926897467441768</v>
+      </c>
+      <c r="C23">
+        <f>CORREL(C2:C18,E2:E18)</f>
+        <v>0.11477488649144799</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
